--- a/static/Models/Regression/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Regression/Equation/Pharmaceuticals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.008197158575057983</v>
+        <v>0.001432685297913849</v>
       </c>
       <c r="C2">
-        <v>0.06074439361691475</v>
+        <v>0.05868332460522652</v>
       </c>
       <c r="D2">
-        <v>-0.1892927139997482</v>
+        <v>-0.1766603142023087</v>
       </c>
       <c r="E2">
-        <v>-0.01601113192737103</v>
+        <v>-0.01735263504087925</v>
       </c>
       <c r="F2">
-        <v>-0.0005598821444436908</v>
+        <v>0.003128614509478211</v>
       </c>
       <c r="G2">
-        <v>0.0006855327519588172</v>
+        <v>0.01106679532676935</v>
       </c>
       <c r="H2">
-        <v>-0.00135678262449801</v>
+        <v>-0.002590092364698648</v>
       </c>
       <c r="I2">
-        <v>-0.005127926357090473</v>
+        <v>-0.005144585389643908</v>
       </c>
       <c r="J2">
-        <v>0.01594380848109722</v>
+        <v>0.00888356938958168</v>
       </c>
       <c r="K2">
-        <v>-0.0100721325725317</v>
+        <v>-0.005488385446369648</v>
       </c>
       <c r="L2">
-        <v>0.002471452811732888</v>
+        <v>-0.005664055235683918</v>
       </c>
       <c r="M2">
-        <v>0.0007691215723752975</v>
+        <v>0.002389688976109028</v>
       </c>
       <c r="N2">
-        <v>-0.0001686848263489082</v>
+        <v>0.007895922288298607</v>
       </c>
       <c r="O2">
-        <v>0.07546110451221466</v>
+        <v>0.06992875039577484</v>
       </c>
       <c r="P2">
-        <v>-0.05633174628019333</v>
+        <v>-0.05748704448342323</v>
       </c>
       <c r="Q2">
-        <v>-0.03152726590633392</v>
+        <v>-0.02823500335216522</v>
       </c>
       <c r="R2">
-        <v>0.007881118915975094</v>
+        <v>-0.004288254771381617</v>
       </c>
       <c r="S2">
-        <v>-0.009244468063116074</v>
+        <v>-0.009790155105292797</v>
       </c>
       <c r="T2">
-        <v>0.1046829372644424</v>
+        <v>0.1064999848604202</v>
       </c>
       <c r="U2">
-        <v>0.04332869872450829</v>
+        <v>0.04303031414747238</v>
       </c>
       <c r="V2">
-        <v>0.002904683351516724</v>
+        <v>0.005134572274982929</v>
       </c>
       <c r="W2">
-        <v>0.003291278844699264</v>
+        <v>-0.003417571308091283</v>
       </c>
       <c r="X2">
-        <v>0.0001026683821692131</v>
+        <v>-0.002723524579778314</v>
       </c>
       <c r="Y2">
-        <v>-0.02100828848779202</v>
+        <v>-0.02224796824157238</v>
       </c>
       <c r="Z2">
-        <v>0.1025680676102638</v>
+        <v>0.08450928330421448</v>
       </c>
       <c r="AA2">
-        <v>0.00624637957662344</v>
+        <v>0.004669297486543655</v>
       </c>
       <c r="AB2">
-        <v>0.03858442604541779</v>
+        <v>0.03762051090598106</v>
       </c>
       <c r="AC2">
-        <v>-0.06182187795639038</v>
+        <v>-0.06101476773619652</v>
       </c>
       <c r="AD2">
-        <v>-0.06797038018703461</v>
+        <v>-0.06664648652076721</v>
       </c>
       <c r="AE2">
-        <v>0.04131725430488586</v>
+        <v>0.03602737188339233</v>
       </c>
       <c r="AF2">
-        <v>0.004757455550134182</v>
+        <v>-0.000201512870262377</v>
       </c>
       <c r="AG2">
-        <v>-0.09980830550193787</v>
+        <v>-0.0994863361120224</v>
       </c>
       <c r="AH2">
-        <v>0.07065512984991074</v>
+        <v>0.05980432033538818</v>
       </c>
       <c r="AI2">
-        <v>-0.008580009452998638</v>
+        <v>-0.003014310030266643</v>
       </c>
       <c r="AJ2">
-        <v>0.003011735156178474</v>
+        <v>-0.001033505774103105</v>
       </c>
       <c r="AK2">
-        <v>0.0152957858517766</v>
+        <v>0.01522420533001423</v>
       </c>
       <c r="AL2">
-        <v>0.004196134395897388</v>
+        <v>0.002611030591651797</v>
       </c>
       <c r="AM2">
-        <v>-0.0672522634267807</v>
+        <v>-0.06206402182579041</v>
       </c>
       <c r="AN2">
-        <v>-0.1422095596790314</v>
+        <v>-0.1415271013975143</v>
       </c>
       <c r="AO2">
-        <v>0.04524033889174461</v>
+        <v>0.04671477898955345</v>
       </c>
       <c r="AP2">
-        <v>0.1026699766516685</v>
+        <v>0.09260255098342896</v>
       </c>
       <c r="AQ2">
-        <v>0.01132401451468468</v>
+        <v>0.01590128242969513</v>
       </c>
       <c r="AR2">
-        <v>0.08654171228408813</v>
+        <v>0.08549230545759201</v>
       </c>
       <c r="AS2">
-        <v>-0.009727288968861103</v>
+        <v>-0.009993350133299828</v>
       </c>
       <c r="AT2">
-        <v>0.05394242703914642</v>
+        <v>0.05969737842679024</v>
       </c>
       <c r="AU2">
-        <v>-0.02601324766874313</v>
+        <v>-0.02449603565037251</v>
       </c>
       <c r="AV2">
-        <v>-0.05767106264829636</v>
+        <v>-0.05829599872231483</v>
       </c>
       <c r="AW2">
-        <v>-0.003157094586640596</v>
+        <v>-0.002620972692966461</v>
       </c>
       <c r="AX2">
-        <v>-0.02155010215938091</v>
+        <v>-0.02408390678465366</v>
       </c>
       <c r="AY2">
-        <v>0.001033750013448298</v>
+        <v>-0.001988023752346635</v>
       </c>
       <c r="AZ2">
-        <v>0.06962902098894119</v>
+        <v>0.07397279888391495</v>
       </c>
       <c r="BA2">
-        <v>-0.0527808740735054</v>
+        <v>-0.05432290956377983</v>
       </c>
       <c r="BB2">
-        <v>-0.05324709415435791</v>
+        <v>-0.05091394856572151</v>
       </c>
       <c r="BC2">
-        <v>0.004218676127493382</v>
+        <v>0.002686121733859181</v>
       </c>
       <c r="BD2">
-        <v>0.1504358202219009</v>
+        <v>0.1515355557203293</v>
       </c>
       <c r="BE2">
-        <v>-0.003557994496077299</v>
+        <v>-0.0022500054910779</v>
       </c>
       <c r="BF2">
-        <v>-0.02516833133995533</v>
+        <v>-0.02229476347565651</v>
       </c>
       <c r="BG2">
-        <v>-0.005574065260589123</v>
+        <v>-0.005557157564908266</v>
       </c>
       <c r="BH2">
-        <v>-0.015523511916399</v>
+        <v>-0.0111682889983058</v>
       </c>
       <c r="BI2">
-        <v>-0.04974714294075966</v>
+        <v>-0.0492049902677536</v>
       </c>
       <c r="BJ2">
-        <v>-0.04511397331953049</v>
+        <v>-0.04555948451161385</v>
       </c>
       <c r="BK2">
-        <v>-0.006093254312872887</v>
+        <v>-0.0003624852106440812</v>
       </c>
       <c r="BL2">
-        <v>0.03046212904155254</v>
+        <v>0.02608052641153336</v>
       </c>
       <c r="BM2">
-        <v>-0.01219117920845747</v>
+        <v>-0.01812606304883957</v>
       </c>
       <c r="BN2">
-        <v>-0.01972329616546631</v>
+        <v>-0.02492089010775089</v>
       </c>
       <c r="BO2">
-        <v>0.01845333725214005</v>
+        <v>0.01266055833548307</v>
       </c>
       <c r="BP2">
-        <v>0.11476980894804</v>
+        <v>0.1197175532579422</v>
       </c>
       <c r="BQ2">
-        <v>-0.0752432644367218</v>
+        <v>-0.07224183529615402</v>
       </c>
       <c r="BR2">
-        <v>-0.00417158380150795</v>
+        <v>-0.01153962872922421</v>
       </c>
       <c r="BS2">
-        <v>0.01695672050118446</v>
+        <v>0.009155669249594212</v>
       </c>
       <c r="BT2">
-        <v>-0.003405819414183497</v>
+        <v>-0.00434220815077424</v>
       </c>
       <c r="BU2">
-        <v>0.006950238719582558</v>
+        <v>0.008485813625156879</v>
       </c>
       <c r="BV2">
-        <v>-0.1750010550022125</v>
+        <v>-0.1683711558580399</v>
       </c>
       <c r="BW2">
-        <v>-0.004098283592611551</v>
+        <v>0.0002947603934444487</v>
       </c>
       <c r="BX2">
-        <v>-0.1967116743326187</v>
+        <v>-0.2067325413227081</v>
       </c>
       <c r="BY2">
-        <v>0.006438956130295992</v>
+        <v>0.004934850614517927</v>
       </c>
       <c r="BZ2">
-        <v>0.033807422965765</v>
+        <v>0.0286918431520462</v>
       </c>
       <c r="CA2">
-        <v>-0.05571602657437325</v>
+        <v>-0.05308030545711517</v>
       </c>
       <c r="CB2">
-        <v>-0.08299463987350464</v>
+        <v>-0.08242613822221756</v>
       </c>
       <c r="CC2">
-        <v>0.006273965816944838</v>
+        <v>0.005713371559977531</v>
       </c>
       <c r="CD2">
-        <v>-0.003090146696195006</v>
+        <v>-0.001574506051838398</v>
       </c>
       <c r="CE2">
-        <v>-0.1069776490330696</v>
+        <v>-0.1089996621012688</v>
       </c>
       <c r="CF2">
-        <v>0.01092172414064407</v>
+        <v>0.001105523551814258</v>
       </c>
       <c r="CG2">
-        <v>-0.1724035292863846</v>
+        <v>-0.1719327121973038</v>
       </c>
       <c r="CH2">
-        <v>0.02210442535579205</v>
+        <v>0.02343627251684666</v>
       </c>
       <c r="CI2">
-        <v>-0.002527031814679503</v>
+        <v>-0.0008170856162905693</v>
       </c>
       <c r="CJ2">
-        <v>-0.0288970060646534</v>
+        <v>-0.03806177154183388</v>
       </c>
       <c r="CK2">
-        <v>0.006988672073930502</v>
+        <v>0.007681632880121469</v>
       </c>
       <c r="CL2">
-        <v>0.002744364785030484</v>
+        <v>0.002570359036326408</v>
       </c>
       <c r="CM2">
-        <v>0.07348723709583282</v>
+        <v>0.07378344237804413</v>
       </c>
       <c r="CN2">
-        <v>-0.003549492219462991</v>
+        <v>0.002377312863245606</v>
       </c>
       <c r="CO2">
-        <v>-0.0005182587774470448</v>
+        <v>-0.0002556052641011775</v>
       </c>
       <c r="CP2">
-        <v>0.04593907296657562</v>
+        <v>0.03896672651171684</v>
       </c>
       <c r="CQ2">
-        <v>0.06725767999887466</v>
+        <v>0.06137004494667053</v>
       </c>
       <c r="CR2">
-        <v>0.002376300049945712</v>
+        <v>8.642497414257377E-05</v>
       </c>
       <c r="CS2">
-        <v>-0.004817616194486618</v>
+        <v>-0.004072720650583506</v>
       </c>
       <c r="CT2">
-        <v>0.0006676230696029961</v>
+        <v>0.0003795866796281189</v>
       </c>
       <c r="CU2">
-        <v>0.005318507086485624</v>
+        <v>0.00521532678976655</v>
       </c>
       <c r="CV2">
-        <v>0.004333444405347109</v>
+        <v>0.008975508622825146</v>
       </c>
       <c r="CW2">
-        <v>-0.04120032489299774</v>
+        <v>-0.04941663891077042</v>
       </c>
       <c r="CX2">
-        <v>-0.003677093423902988</v>
+        <v>-0.00526887783780694</v>
       </c>
       <c r="CY2">
-        <v>0.02233367227017879</v>
+        <v>0.02474853023886681</v>
       </c>
       <c r="CZ2">
-        <v>0.005453124642372131</v>
+        <v>0.003604386001825333</v>
       </c>
       <c r="DA2">
-        <v>0.0314585380256176</v>
+        <v>0.02421531453728676</v>
       </c>
       <c r="DB2">
-        <v>-0.04496753960847855</v>
+        <v>-0.04183110967278481</v>
       </c>
       <c r="DC2">
-        <v>-1.503520252299495E-05</v>
+        <v>0.001373972627334297</v>
       </c>
       <c r="DD2">
-        <v>-0.1142301261425018</v>
+        <v>-0.1230031847953796</v>
       </c>
       <c r="DE2">
-        <v>-0.002308537252247334</v>
+        <v>-0.001661370741203427</v>
       </c>
       <c r="DF2">
-        <v>0.03051441349089146</v>
+        <v>0.02695376798510551</v>
       </c>
       <c r="DG2">
-        <v>0.01661201007664204</v>
+        <v>0.02058669365942478</v>
       </c>
       <c r="DH2">
-        <v>-0.05092841014266014</v>
+        <v>-0.06310620903968811</v>
       </c>
       <c r="DI2">
-        <v>-0.006405365653336048</v>
+        <v>-0.003017062786966562</v>
       </c>
       <c r="DJ2">
-        <v>-0.03366724774241447</v>
+        <v>-0.02983926981687546</v>
       </c>
       <c r="DK2">
-        <v>0.03201956301927567</v>
+        <v>0.02874423749744892</v>
       </c>
       <c r="DL2">
-        <v>0.0666486918926239</v>
+        <v>0.06684555858373642</v>
       </c>
       <c r="DM2">
-        <v>0.006249429658055305</v>
+        <v>0.005533641204237938</v>
       </c>
       <c r="DN2">
-        <v>0.03003751300275326</v>
+        <v>0.03014654852449894</v>
       </c>
       <c r="DO2">
-        <v>0.0124495942145586</v>
+        <v>0.01270926091820002</v>
       </c>
       <c r="DP2">
-        <v>-0.008320274762809277</v>
+        <v>-0.01533549465239048</v>
       </c>
       <c r="DQ2">
-        <v>0.004518009722232819</v>
+        <v>0.005133024416863918</v>
       </c>
       <c r="DR2">
-        <v>0.01404388342052698</v>
+        <v>0.0154033936560154</v>
       </c>
       <c r="DS2">
-        <v>-0.07920708507299423</v>
+        <v>-0.08603817224502563</v>
       </c>
       <c r="DT2">
-        <v>-0.03817226737737656</v>
+        <v>-0.04401467368006706</v>
       </c>
       <c r="DU2">
-        <v>0.0268782302737236</v>
+        <v>0.02637061104178429</v>
       </c>
       <c r="DV2">
-        <v>0.001725409645587206</v>
+        <v>0.001733292709104717</v>
       </c>
       <c r="DW2">
-        <v>0.0007263869047164917</v>
+        <v>0.002060686238110065</v>
       </c>
       <c r="DX2">
-        <v>-0.04883302375674248</v>
+        <v>-0.04816321283578873</v>
       </c>
       <c r="DY2">
-        <v>-0.0507982149720192</v>
+        <v>-0.05260683223605156</v>
       </c>
       <c r="DZ2">
-        <v>-0.007343288045376539</v>
+        <v>-0.002665086183696985</v>
       </c>
       <c r="EA2">
-        <v>0.01073947921395302</v>
+        <v>0.00863275583833456</v>
       </c>
       <c r="EB2">
-        <v>-0.08425729721784592</v>
+        <v>-0.08326823264360428</v>
       </c>
       <c r="EC2">
-        <v>-0.0006891830707900226</v>
+        <v>-0.002162220422178507</v>
       </c>
       <c r="ED2">
-        <v>-0.1260027587413788</v>
+        <v>-0.1247107982635498</v>
       </c>
       <c r="EE2">
-        <v>0.00676801661029458</v>
+        <v>0.007143001072108746</v>
       </c>
       <c r="EF2">
-        <v>0.1604726910591125</v>
+        <v>0.1554823517799377</v>
       </c>
       <c r="EG2">
-        <v>-0.02551430463790894</v>
+        <v>-0.01932163909077644</v>
       </c>
       <c r="EH2">
-        <v>-0.09482689946889877</v>
+        <v>-0.09553620964288712</v>
       </c>
       <c r="EI2">
-        <v>0.1384645849466324</v>
+        <v>0.1336486488580704</v>
       </c>
       <c r="EJ2">
-        <v>-0.07851311564445496</v>
+        <v>-0.07958262413740158</v>
       </c>
       <c r="EK2">
-        <v>-0.0030800502281636</v>
+        <v>-0.003271147841587663</v>
       </c>
       <c r="EL2">
-        <v>-0.002727833576500416</v>
+        <v>-0.002717846538871527</v>
       </c>
       <c r="EM2">
-        <v>-0.1129674389958382</v>
+        <v>-0.1050830185413361</v>
       </c>
       <c r="EN2">
-        <v>-0.004808652214705944</v>
+        <v>-0.002181663177907467</v>
       </c>
       <c r="EO2">
-        <v>-0.05891481414437294</v>
+        <v>-0.05834159255027771</v>
       </c>
       <c r="EP2">
-        <v>0.08646544814109802</v>
+        <v>0.08194670826196671</v>
       </c>
       <c r="EQ2">
-        <v>0.04131956398487091</v>
+        <v>0.0325525775551796</v>
       </c>
       <c r="ER2">
-        <v>0.004747692029923201</v>
+        <v>-0.0007256254320964217</v>
       </c>
       <c r="ES2">
-        <v>-0.020414212718606</v>
+        <v>-0.0331866629421711</v>
       </c>
       <c r="ET2">
-        <v>-0.1186389550566673</v>
+        <v>-0.1219857633113861</v>
       </c>
       <c r="EU2">
-        <v>0.07440534979104996</v>
+        <v>0.05681953951716423</v>
       </c>
       <c r="EV2">
-        <v>-0.06104057282209396</v>
+        <v>-0.05928757414221764</v>
       </c>
       <c r="EW2">
-        <v>-0.0006793047650717199</v>
+        <v>0.005999229848384857</v>
       </c>
       <c r="EX2">
-        <v>-0.1578883081674576</v>
+        <v>-0.16965551674366</v>
       </c>
       <c r="EY2">
-        <v>0.00677580526098609</v>
+        <v>0.007522120606154203</v>
       </c>
       <c r="EZ2">
-        <v>-0.006495231296867132</v>
+        <v>-0.001728853676468134</v>
       </c>
       <c r="FA2">
-        <v>0.0002495155786164105</v>
+        <v>-0.004792359657585621</v>
       </c>
       <c r="FB2">
-        <v>-0.004772952292114496</v>
+        <v>-0.004542028065770864</v>
       </c>
       <c r="FC2">
-        <v>-0.07055282592773438</v>
+        <v>-0.07400115579366684</v>
       </c>
       <c r="FD2">
-        <v>-0.007677481044083834</v>
+        <v>-0.009312980808317661</v>
       </c>
       <c r="FE2">
-        <v>0.01882509142160416</v>
+        <v>0.009769848547875881</v>
       </c>
       <c r="FF2">
-        <v>-0.08176297694444656</v>
+        <v>-0.09018097817897797</v>
       </c>
       <c r="FG2">
-        <v>-0.1156519502401352</v>
+        <v>-0.1149986535310745</v>
       </c>
       <c r="FH2">
-        <v>0.003842738457024097</v>
+        <v>0.01106754783540964</v>
       </c>
       <c r="FI2">
-        <v>0.0252307616174221</v>
+        <v>0.02327476069331169</v>
       </c>
       <c r="FJ2">
-        <v>0.01757532544434071</v>
+        <v>0.01986230351030827</v>
       </c>
       <c r="FK2">
-        <v>0.06448495388031006</v>
+        <v>0.06268491595983505</v>
       </c>
       <c r="FL2">
-        <v>0.007395213469862938</v>
+        <v>0.005808517802506685</v>
       </c>
       <c r="FM2">
-        <v>0.09114671498537064</v>
+        <v>0.09411627054214478</v>
       </c>
       <c r="FN2">
-        <v>0.01607628911733627</v>
+        <v>0.01023753173649311</v>
       </c>
       <c r="FO2">
-        <v>0.001616742578335106</v>
+        <v>0.004432258661836386</v>
       </c>
       <c r="FP2">
-        <v>0.01036446169018745</v>
+        <v>0.006826312281191349</v>
       </c>
       <c r="FQ2">
-        <v>0.002939017722383142</v>
+        <v>0.003054666332900524</v>
       </c>
       <c r="FR2">
-        <v>0.001874239882454276</v>
+        <v>0.001944716670550406</v>
       </c>
       <c r="FS2">
-        <v>0.006117778830230236</v>
+        <v>0.006150372326374054</v>
       </c>
       <c r="FT2">
-        <v>0.007742438465356827</v>
+        <v>0.007846519351005554</v>
       </c>
       <c r="FU2">
-        <v>-0.02689213491976261</v>
+        <v>-0.02588202804327011</v>
       </c>
       <c r="FV2">
-        <v>-0.02298041246831417</v>
+        <v>-0.02180749364197254</v>
       </c>
       <c r="FW2">
-        <v>-0.02821065485477448</v>
+        <v>-0.02661376260221004</v>
       </c>
       <c r="FX2">
-        <v>-0.0007616248913109303</v>
+        <v>-0.0004409824032336473</v>
       </c>
       <c r="FY2">
-        <v>-0.004255953710526228</v>
+        <v>-0.004402325488626957</v>
       </c>
       <c r="FZ2">
-        <v>0.002444780431687832</v>
+        <v>-0.001080926740542054</v>
       </c>
       <c r="GA2">
-        <v>-0.04568147286772728</v>
+        <v>-0.04617986083030701</v>
       </c>
       <c r="GB2">
-        <v>0.00421708170324564</v>
+        <v>0.004342574626207352</v>
       </c>
       <c r="GC2">
-        <v>-0.08764857053756714</v>
+        <v>-0.09292847663164139</v>
       </c>
       <c r="GD2">
-        <v>0.08302974700927734</v>
+        <v>0.08501472324132919</v>
       </c>
       <c r="GE2">
-        <v>-0.001356653054244816</v>
+        <v>-0.0009603594662621617</v>
       </c>
       <c r="GF2">
-        <v>-4.081014049006626E-05</v>
+        <v>-0.004033300094306469</v>
       </c>
       <c r="GG2">
-        <v>0.003172589931637049</v>
+        <v>0.003723068861290812</v>
       </c>
       <c r="GH2">
-        <v>0.004783481359481812</v>
+        <v>-0.0003242764214519411</v>
       </c>
       <c r="GI2">
-        <v>-0.1393177509307861</v>
+        <v>-0.1467905640602112</v>
       </c>
       <c r="GJ2">
-        <v>-0.005436826031655073</v>
+        <v>-0.001535301678813994</v>
       </c>
       <c r="GK2">
-        <v>0.01348127424716949</v>
+        <v>0.01327994931489229</v>
       </c>
       <c r="GL2">
-        <v>0.006659096572548151</v>
+        <v>0.01134798396378756</v>
       </c>
       <c r="GM2">
-        <v>-0.07547113299369812</v>
+        <v>-0.07831164449453354</v>
       </c>
       <c r="GN2">
-        <v>-0.01300578471273184</v>
+        <v>-0.00911689642816782</v>
       </c>
       <c r="GO2">
-        <v>-0.02444352209568024</v>
+        <v>-0.02994327992200851</v>
       </c>
       <c r="GP2">
-        <v>0.01055290084332228</v>
+        <v>0.01085750479251146</v>
       </c>
       <c r="GQ2">
-        <v>0.005165879614651203</v>
+        <v>0.005628063809126616</v>
       </c>
       <c r="GR2">
-        <v>0.008504004217684269</v>
+        <v>0.007206497248262167</v>
       </c>
       <c r="GS2">
-        <v>-0.003974225837737322</v>
+        <v>-0.00798963475972414</v>
       </c>
       <c r="GT2">
-        <v>0.006321847438812256</v>
+        <v>0.008777204900979996</v>
       </c>
       <c r="GU2">
-        <v>-0.004382362589240074</v>
+        <v>-0.003603371325880289</v>
       </c>
       <c r="GV2">
-        <v>-0.0005000348319299519</v>
+        <v>0.0006627724505960941</v>
       </c>
       <c r="GW2">
-        <v>-0.03163029998540878</v>
+        <v>-0.03858872875571251</v>
       </c>
       <c r="GX2">
-        <v>0.002608997048810124</v>
+        <v>0.002633621217682958</v>
       </c>
       <c r="GY2">
-        <v>0.003494704142212868</v>
+        <v>0.00443274574354291</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Regression/Equation/Pharmaceuticals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.001432685297913849</v>
+        <v>0.003618856426328421</v>
       </c>
       <c r="C2">
-        <v>0.05868332460522652</v>
+        <v>0.05694806948304176</v>
       </c>
       <c r="D2">
-        <v>-0.1766603142023087</v>
+        <v>-0.1645354330539703</v>
       </c>
       <c r="E2">
-        <v>-0.01735263504087925</v>
+        <v>-0.01721861772239208</v>
       </c>
       <c r="F2">
-        <v>0.003128614509478211</v>
+        <v>0.01111666951328516</v>
       </c>
       <c r="G2">
-        <v>0.01106679532676935</v>
+        <v>0.02484319917857647</v>
       </c>
       <c r="H2">
-        <v>-0.002590092364698648</v>
+        <v>-0.007447625510394573</v>
       </c>
       <c r="I2">
-        <v>-0.005144585389643908</v>
+        <v>-0.004139677621424198</v>
       </c>
       <c r="J2">
-        <v>0.00888356938958168</v>
+        <v>0.01197991799563169</v>
       </c>
       <c r="K2">
-        <v>-0.005488385446369648</v>
+        <v>-0.004977144300937653</v>
       </c>
       <c r="L2">
-        <v>-0.005664055235683918</v>
+        <v>-0.003448636969551444</v>
       </c>
       <c r="M2">
-        <v>0.002389688976109028</v>
+        <v>0.007301787845790386</v>
       </c>
       <c r="N2">
-        <v>0.007895922288298607</v>
+        <v>0.01187373325228691</v>
       </c>
       <c r="O2">
-        <v>0.06992875039577484</v>
+        <v>0.05382027104496956</v>
       </c>
       <c r="P2">
-        <v>-0.05748704448342323</v>
+        <v>-0.0584789477288723</v>
       </c>
       <c r="Q2">
-        <v>-0.02823500335216522</v>
+        <v>-0.02211262285709381</v>
       </c>
       <c r="R2">
-        <v>-0.004288254771381617</v>
+        <v>-0.005281105171889067</v>
       </c>
       <c r="S2">
-        <v>-0.009790155105292797</v>
+        <v>-0.009789321571588516</v>
       </c>
       <c r="T2">
-        <v>0.1064999848604202</v>
+        <v>0.1049977466464043</v>
       </c>
       <c r="U2">
-        <v>0.04303031414747238</v>
+        <v>0.04826847463846207</v>
       </c>
       <c r="V2">
-        <v>0.005134572274982929</v>
+        <v>0.005065928678959608</v>
       </c>
       <c r="W2">
-        <v>-0.003417571308091283</v>
+        <v>-0.0008887861622497439</v>
       </c>
       <c r="X2">
-        <v>-0.002723524579778314</v>
+        <v>-0.005947054363787174</v>
       </c>
       <c r="Y2">
-        <v>-0.02224796824157238</v>
+        <v>-0.01741875149309635</v>
       </c>
       <c r="Z2">
-        <v>0.08450928330421448</v>
+        <v>0.1006801947951317</v>
       </c>
       <c r="AA2">
-        <v>0.004669297486543655</v>
+        <v>0.007178876083344221</v>
       </c>
       <c r="AB2">
-        <v>0.03762051090598106</v>
+        <v>0.03747589513659477</v>
       </c>
       <c r="AC2">
-        <v>-0.06101476773619652</v>
+        <v>-0.0575084462761879</v>
       </c>
       <c r="AD2">
-        <v>-0.06664648652076721</v>
+        <v>-0.06707668304443359</v>
       </c>
       <c r="AE2">
-        <v>0.03602737188339233</v>
+        <v>0.04579007998108864</v>
       </c>
       <c r="AF2">
-        <v>-0.000201512870262377</v>
+        <v>0.0007801486644893885</v>
       </c>
       <c r="AG2">
-        <v>-0.0994863361120224</v>
+        <v>-0.0968065932393074</v>
       </c>
       <c r="AH2">
-        <v>0.05980432033538818</v>
+        <v>0.06236186251044273</v>
       </c>
       <c r="AI2">
-        <v>-0.003014310030266643</v>
+        <v>-0.008460564538836479</v>
       </c>
       <c r="AJ2">
-        <v>-0.001033505774103105</v>
+        <v>-0.005668846424669027</v>
       </c>
       <c r="AK2">
-        <v>0.01522420533001423</v>
+        <v>0.02027742937207222</v>
       </c>
       <c r="AL2">
-        <v>0.002611030591651797</v>
+        <v>0.0006550307152792811</v>
       </c>
       <c r="AM2">
-        <v>-0.06206402182579041</v>
+        <v>-0.06169797852635384</v>
       </c>
       <c r="AN2">
-        <v>-0.1415271013975143</v>
+        <v>-0.1407123655080795</v>
       </c>
       <c r="AO2">
-        <v>0.04671477898955345</v>
+        <v>0.04178585484623909</v>
       </c>
       <c r="AP2">
-        <v>0.09260255098342896</v>
+        <v>0.08197957277297974</v>
       </c>
       <c r="AQ2">
-        <v>0.01590128242969513</v>
+        <v>0.01406330987811089</v>
       </c>
       <c r="AR2">
-        <v>0.08549230545759201</v>
+        <v>0.07555272430181503</v>
       </c>
       <c r="AS2">
-        <v>-0.009993350133299828</v>
+        <v>-0.008787546306848526</v>
       </c>
       <c r="AT2">
-        <v>0.05969737842679024</v>
+        <v>0.07313327491283417</v>
       </c>
       <c r="AU2">
-        <v>-0.02449603565037251</v>
+        <v>-0.02531437948346138</v>
       </c>
       <c r="AV2">
-        <v>-0.05829599872231483</v>
+        <v>-0.06542728096246719</v>
       </c>
       <c r="AW2">
-        <v>-0.002620972692966461</v>
+        <v>-0.003371267346665263</v>
       </c>
       <c r="AX2">
-        <v>-0.02408390678465366</v>
+        <v>-0.02670496329665184</v>
       </c>
       <c r="AY2">
-        <v>-0.001988023752346635</v>
+        <v>0.001140895416028798</v>
       </c>
       <c r="AZ2">
-        <v>0.07397279888391495</v>
+        <v>0.06897056847810745</v>
       </c>
       <c r="BA2">
-        <v>-0.05432290956377983</v>
+        <v>-0.05873100832104683</v>
       </c>
       <c r="BB2">
-        <v>-0.05091394856572151</v>
+        <v>-0.0428127832710743</v>
       </c>
       <c r="BC2">
-        <v>0.002686121733859181</v>
+        <v>0.00344848120585084</v>
       </c>
       <c r="BD2">
-        <v>0.1515355557203293</v>
+        <v>0.1512019038200378</v>
       </c>
       <c r="BE2">
-        <v>-0.0022500054910779</v>
+        <v>-0.005054557230323553</v>
       </c>
       <c r="BF2">
-        <v>-0.02229476347565651</v>
+        <v>-0.01504059880971909</v>
       </c>
       <c r="BG2">
-        <v>-0.005557157564908266</v>
+        <v>-0.005504564847797155</v>
       </c>
       <c r="BH2">
-        <v>-0.0111682889983058</v>
+        <v>-0.004640800878405571</v>
       </c>
       <c r="BI2">
-        <v>-0.0492049902677536</v>
+        <v>-0.05152240395545959</v>
       </c>
       <c r="BJ2">
-        <v>-0.04555948451161385</v>
+        <v>-0.04180442541837692</v>
       </c>
       <c r="BK2">
-        <v>-0.0003624852106440812</v>
+        <v>-0.007599961012601852</v>
       </c>
       <c r="BL2">
-        <v>0.02608052641153336</v>
+        <v>0.02896756678819656</v>
       </c>
       <c r="BM2">
-        <v>-0.01812606304883957</v>
+        <v>-0.01557273510843515</v>
       </c>
       <c r="BN2">
-        <v>-0.02492089010775089</v>
+        <v>-0.03198451548814774</v>
       </c>
       <c r="BO2">
-        <v>0.01266055833548307</v>
+        <v>0.01742321811616421</v>
       </c>
       <c r="BP2">
-        <v>0.1197175532579422</v>
+        <v>0.1235413700342178</v>
       </c>
       <c r="BQ2">
-        <v>-0.07224183529615402</v>
+        <v>-0.07518333196640015</v>
       </c>
       <c r="BR2">
-        <v>-0.01153962872922421</v>
+        <v>-0.01461267564445734</v>
       </c>
       <c r="BS2">
-        <v>0.009155669249594212</v>
+        <v>0.01196277979761362</v>
       </c>
       <c r="BT2">
-        <v>-0.00434220815077424</v>
+        <v>-0.0003356024972163141</v>
       </c>
       <c r="BU2">
-        <v>0.008485813625156879</v>
+        <v>0.00987643375992775</v>
       </c>
       <c r="BV2">
-        <v>-0.1683711558580399</v>
+        <v>-0.1600791811943054</v>
       </c>
       <c r="BW2">
-        <v>0.0002947603934444487</v>
+        <v>0.008281509391963482</v>
       </c>
       <c r="BX2">
-        <v>-0.2067325413227081</v>
+        <v>-0.2048008739948273</v>
       </c>
       <c r="BY2">
-        <v>0.004934850614517927</v>
+        <v>0.006714743096381426</v>
       </c>
       <c r="BZ2">
-        <v>0.0286918431520462</v>
+        <v>0.03215323016047478</v>
       </c>
       <c r="CA2">
-        <v>-0.05308030545711517</v>
+        <v>-0.05183194950222969</v>
       </c>
       <c r="CB2">
-        <v>-0.08242613822221756</v>
+        <v>-0.08218438923358917</v>
       </c>
       <c r="CC2">
-        <v>0.005713371559977531</v>
+        <v>0.006063931155949831</v>
       </c>
       <c r="CD2">
-        <v>-0.001574506051838398</v>
+        <v>0.001009023748338223</v>
       </c>
       <c r="CE2">
-        <v>-0.1089996621012688</v>
+        <v>-0.1161801964044571</v>
       </c>
       <c r="CF2">
-        <v>0.001105523551814258</v>
+        <v>0.003246615873649716</v>
       </c>
       <c r="CG2">
-        <v>-0.1719327121973038</v>
+        <v>-0.1737044304609299</v>
       </c>
       <c r="CH2">
-        <v>0.02343627251684666</v>
+        <v>0.02373159304261208</v>
       </c>
       <c r="CI2">
-        <v>-0.0008170856162905693</v>
+        <v>-0.0005881277029402554</v>
       </c>
       <c r="CJ2">
-        <v>-0.03806177154183388</v>
+        <v>-0.03147098049521446</v>
       </c>
       <c r="CK2">
-        <v>0.007681632880121469</v>
+        <v>0.009066927246749401</v>
       </c>
       <c r="CL2">
-        <v>0.002570359036326408</v>
+        <v>0.003539068857207894</v>
       </c>
       <c r="CM2">
-        <v>0.07378344237804413</v>
+        <v>0.07019151002168655</v>
       </c>
       <c r="CN2">
-        <v>0.002377312863245606</v>
+        <v>0.00516836391761899</v>
       </c>
       <c r="CO2">
-        <v>-0.0002556052641011775</v>
+        <v>-0.001623338903300464</v>
       </c>
       <c r="CP2">
-        <v>0.03896672651171684</v>
+        <v>0.04834544286131859</v>
       </c>
       <c r="CQ2">
-        <v>0.06137004494667053</v>
+        <v>0.04059213772416115</v>
       </c>
       <c r="CR2">
-        <v>8.642497414257377E-05</v>
+        <v>-0.001121190376579762</v>
       </c>
       <c r="CS2">
-        <v>-0.004072720650583506</v>
+        <v>-0.004737415816634893</v>
       </c>
       <c r="CT2">
-        <v>0.0003795866796281189</v>
+        <v>0.001082471688278019</v>
       </c>
       <c r="CU2">
-        <v>0.00521532678976655</v>
+        <v>-0.000254683691309765</v>
       </c>
       <c r="CV2">
-        <v>0.008975508622825146</v>
+        <v>0.006572981830686331</v>
       </c>
       <c r="CW2">
-        <v>-0.04941663891077042</v>
+        <v>-0.04231340065598488</v>
       </c>
       <c r="CX2">
-        <v>-0.00526887783780694</v>
+        <v>7.162036490626633E-05</v>
       </c>
       <c r="CY2">
-        <v>0.02474853023886681</v>
+        <v>0.02446945384144783</v>
       </c>
       <c r="CZ2">
-        <v>0.003604386001825333</v>
+        <v>0.003984269220381975</v>
       </c>
       <c r="DA2">
-        <v>0.02421531453728676</v>
+        <v>0.02361905388534069</v>
       </c>
       <c r="DB2">
-        <v>-0.04183110967278481</v>
+        <v>-0.02839489281177521</v>
       </c>
       <c r="DC2">
-        <v>0.001373972627334297</v>
+        <v>-0.002013871911913157</v>
       </c>
       <c r="DD2">
-        <v>-0.1230031847953796</v>
+        <v>-0.1202394291758537</v>
       </c>
       <c r="DE2">
-        <v>-0.001661370741203427</v>
+        <v>-0.000802157970611006</v>
       </c>
       <c r="DF2">
-        <v>0.02695376798510551</v>
+        <v>0.0274672657251358</v>
       </c>
       <c r="DG2">
-        <v>0.02058669365942478</v>
+        <v>0.009710410609841347</v>
       </c>
       <c r="DH2">
-        <v>-0.06310620903968811</v>
+        <v>-0.06197711825370789</v>
       </c>
       <c r="DI2">
-        <v>-0.003017062786966562</v>
+        <v>-0.005348213482648134</v>
       </c>
       <c r="DJ2">
-        <v>-0.02983926981687546</v>
+        <v>-0.01186463143676519</v>
       </c>
       <c r="DK2">
-        <v>0.02874423749744892</v>
+        <v>0.02946819178760052</v>
       </c>
       <c r="DL2">
-        <v>0.06684555858373642</v>
+        <v>0.06794703006744385</v>
       </c>
       <c r="DM2">
-        <v>0.005533641204237938</v>
+        <v>0.00744110532104969</v>
       </c>
       <c r="DN2">
-        <v>0.03014654852449894</v>
+        <v>0.03063391707837582</v>
       </c>
       <c r="DO2">
-        <v>0.01270926091820002</v>
+        <v>0.01569591276347637</v>
       </c>
       <c r="DP2">
-        <v>-0.01533549465239048</v>
+        <v>-0.01323973666876554</v>
       </c>
       <c r="DQ2">
-        <v>0.005133024416863918</v>
+        <v>0.004801901057362556</v>
       </c>
       <c r="DR2">
-        <v>0.0154033936560154</v>
+        <v>0.009476808831095695</v>
       </c>
       <c r="DS2">
-        <v>-0.08603817224502563</v>
+        <v>-0.09138487279415131</v>
       </c>
       <c r="DT2">
-        <v>-0.04401467368006706</v>
+        <v>-0.0485309511423111</v>
       </c>
       <c r="DU2">
-        <v>0.02637061104178429</v>
+        <v>0.02613893151283264</v>
       </c>
       <c r="DV2">
-        <v>0.001733292709104717</v>
+        <v>0.000189750106073916</v>
       </c>
       <c r="DW2">
-        <v>0.002060686238110065</v>
+        <v>0.0005519556580111384</v>
       </c>
       <c r="DX2">
-        <v>-0.04816321283578873</v>
+        <v>-0.04760740324854851</v>
       </c>
       <c r="DY2">
-        <v>-0.05260683223605156</v>
+        <v>-0.05361677333712578</v>
       </c>
       <c r="DZ2">
-        <v>-0.002665086183696985</v>
+        <v>-0.002665718784555793</v>
       </c>
       <c r="EA2">
-        <v>0.00863275583833456</v>
+        <v>0.01283814013004303</v>
       </c>
       <c r="EB2">
-        <v>-0.08326823264360428</v>
+        <v>-0.08301893621683121</v>
       </c>
       <c r="EC2">
-        <v>-0.002162220422178507</v>
+        <v>0.0006695098127238452</v>
       </c>
       <c r="ED2">
-        <v>-0.1247107982635498</v>
+        <v>-0.1265598982572556</v>
       </c>
       <c r="EE2">
-        <v>0.007143001072108746</v>
+        <v>0.006656865123659372</v>
       </c>
       <c r="EF2">
-        <v>0.1554823517799377</v>
+        <v>0.1443788260221481</v>
       </c>
       <c r="EG2">
-        <v>-0.01932163909077644</v>
+        <v>-0.01427836716175079</v>
       </c>
       <c r="EH2">
-        <v>-0.09553620964288712</v>
+        <v>-0.09801837056875229</v>
       </c>
       <c r="EI2">
-        <v>0.1336486488580704</v>
+        <v>0.1365975439548492</v>
       </c>
       <c r="EJ2">
-        <v>-0.07958262413740158</v>
+        <v>-0.08473888784646988</v>
       </c>
       <c r="EK2">
-        <v>-0.003271147841587663</v>
+        <v>-0.0034650310408324</v>
       </c>
       <c r="EL2">
-        <v>-0.002717846538871527</v>
+        <v>-0.003620139788836241</v>
       </c>
       <c r="EM2">
-        <v>-0.1050830185413361</v>
+        <v>-0.09645704180002213</v>
       </c>
       <c r="EN2">
-        <v>-0.002181663177907467</v>
+        <v>-0.009135665372014046</v>
       </c>
       <c r="EO2">
-        <v>-0.05834159255027771</v>
+        <v>-0.06290974467992783</v>
       </c>
       <c r="EP2">
-        <v>0.08194670826196671</v>
+        <v>0.07856548577547073</v>
       </c>
       <c r="EQ2">
-        <v>0.0325525775551796</v>
+        <v>0.04634479060769081</v>
       </c>
       <c r="ER2">
-        <v>-0.0007256254320964217</v>
+        <v>-0.001457569189369678</v>
       </c>
       <c r="ES2">
-        <v>-0.0331866629421711</v>
+        <v>-0.03631939738988876</v>
       </c>
       <c r="ET2">
-        <v>-0.1219857633113861</v>
+        <v>-0.1206590905785561</v>
       </c>
       <c r="EU2">
-        <v>0.05681953951716423</v>
+        <v>0.05314871296286583</v>
       </c>
       <c r="EV2">
-        <v>-0.05928757414221764</v>
+        <v>-0.0620512068271637</v>
       </c>
       <c r="EW2">
-        <v>0.005999229848384857</v>
+        <v>0.01680160872638226</v>
       </c>
       <c r="EX2">
-        <v>-0.16965551674366</v>
+        <v>-0.166370153427124</v>
       </c>
       <c r="EY2">
-        <v>0.007522120606154203</v>
+        <v>0.009359342977404594</v>
       </c>
       <c r="EZ2">
-        <v>-0.001728853676468134</v>
+        <v>0.006080003920942545</v>
       </c>
       <c r="FA2">
-        <v>-0.004792359657585621</v>
+        <v>-0.0002718377509154379</v>
       </c>
       <c r="FB2">
-        <v>-0.004542028065770864</v>
+        <v>-0.003186993300914764</v>
       </c>
       <c r="FC2">
-        <v>-0.07400115579366684</v>
+        <v>-0.07342113554477692</v>
       </c>
       <c r="FD2">
-        <v>-0.009312980808317661</v>
+        <v>-0.006164388731122017</v>
       </c>
       <c r="FE2">
-        <v>0.009769848547875881</v>
+        <v>0.004424875136464834</v>
       </c>
       <c r="FF2">
-        <v>-0.09018097817897797</v>
+        <v>-0.09426827728748322</v>
       </c>
       <c r="FG2">
-        <v>-0.1149986535310745</v>
+        <v>-0.1117979362607002</v>
       </c>
       <c r="FH2">
-        <v>0.01106754783540964</v>
+        <v>0.003854866372421384</v>
       </c>
       <c r="FI2">
-        <v>0.02327476069331169</v>
+        <v>0.01754601113498211</v>
       </c>
       <c r="FJ2">
-        <v>0.01986230351030827</v>
+        <v>0.02302427962422371</v>
       </c>
       <c r="FK2">
-        <v>0.06268491595983505</v>
+        <v>0.05376879498362541</v>
       </c>
       <c r="FL2">
-        <v>0.005808517802506685</v>
+        <v>0.004766937345266342</v>
       </c>
       <c r="FM2">
-        <v>0.09411627054214478</v>
+        <v>0.1028140187263489</v>
       </c>
       <c r="FN2">
-        <v>0.01023753173649311</v>
+        <v>0.01350330654531717</v>
       </c>
       <c r="FO2">
-        <v>0.004432258661836386</v>
+        <v>0.004677379969507456</v>
       </c>
       <c r="FP2">
-        <v>0.006826312281191349</v>
+        <v>0.004901404026895761</v>
       </c>
       <c r="FQ2">
-        <v>0.003054666332900524</v>
+        <v>0.00255850818939507</v>
       </c>
       <c r="FR2">
-        <v>0.001944716670550406</v>
+        <v>0.002919680206105113</v>
       </c>
       <c r="FS2">
-        <v>0.006150372326374054</v>
+        <v>0.007270658854395151</v>
       </c>
       <c r="FT2">
-        <v>0.007846519351005554</v>
+        <v>0.006768448278307915</v>
       </c>
       <c r="FU2">
-        <v>-0.02588202804327011</v>
+        <v>-0.02795194648206234</v>
       </c>
       <c r="FV2">
-        <v>-0.02180749364197254</v>
+        <v>-0.01984099671244621</v>
       </c>
       <c r="FW2">
-        <v>-0.02661376260221004</v>
+        <v>-0.02842335589230061</v>
       </c>
       <c r="FX2">
-        <v>-0.0004409824032336473</v>
+        <v>0.001403044094331563</v>
       </c>
       <c r="FY2">
-        <v>-0.004402325488626957</v>
+        <v>-0.003412414807826281</v>
       </c>
       <c r="FZ2">
-        <v>-0.001080926740542054</v>
+        <v>-0.002112314570695162</v>
       </c>
       <c r="GA2">
-        <v>-0.04617986083030701</v>
+        <v>-0.04454853385686874</v>
       </c>
       <c r="GB2">
-        <v>0.004342574626207352</v>
+        <v>0.005542906001210213</v>
       </c>
       <c r="GC2">
-        <v>-0.09292847663164139</v>
+        <v>-0.07775930315256119</v>
       </c>
       <c r="GD2">
-        <v>0.08501472324132919</v>
+        <v>0.07132899016141891</v>
       </c>
       <c r="GE2">
-        <v>-0.0009603594662621617</v>
+        <v>-0.0009016970288939774</v>
       </c>
       <c r="GF2">
-        <v>-0.004033300094306469</v>
+        <v>0.001100638648495078</v>
       </c>
       <c r="GG2">
-        <v>0.003723068861290812</v>
+        <v>-0.001086956355720758</v>
       </c>
       <c r="GH2">
-        <v>-0.0003242764214519411</v>
+        <v>0.003830061294138432</v>
       </c>
       <c r="GI2">
-        <v>-0.1467905640602112</v>
+        <v>-0.1414594352245331</v>
       </c>
       <c r="GJ2">
-        <v>-0.001535301678813994</v>
+        <v>-0.00885913148522377</v>
       </c>
       <c r="GK2">
-        <v>0.01327994931489229</v>
+        <v>0.01759741269052029</v>
       </c>
       <c r="GL2">
-        <v>0.01134798396378756</v>
+        <v>0.02324025519192219</v>
       </c>
       <c r="GM2">
-        <v>-0.07831164449453354</v>
+        <v>-0.07995506376028061</v>
       </c>
       <c r="GN2">
-        <v>-0.00911689642816782</v>
+        <v>-0.01074447948485613</v>
       </c>
       <c r="GO2">
-        <v>-0.02994327992200851</v>
+        <v>-0.03306335210800171</v>
       </c>
       <c r="GP2">
-        <v>0.01085750479251146</v>
+        <v>0.01144189666956663</v>
       </c>
       <c r="GQ2">
-        <v>0.005628063809126616</v>
+        <v>0.011181665584445</v>
       </c>
       <c r="GR2">
-        <v>0.007206497248262167</v>
+        <v>0.003769772592931986</v>
       </c>
       <c r="GS2">
-        <v>-0.00798963475972414</v>
+        <v>-0.01550665497779846</v>
       </c>
       <c r="GT2">
-        <v>0.008777204900979996</v>
+        <v>0.01152579579502344</v>
       </c>
       <c r="GU2">
-        <v>-0.003603371325880289</v>
+        <v>-0.004456113092601299</v>
       </c>
       <c r="GV2">
-        <v>0.0006627724505960941</v>
+        <v>-0.00185315974522382</v>
       </c>
       <c r="GW2">
-        <v>-0.03858872875571251</v>
+        <v>-0.03758150711655617</v>
       </c>
       <c r="GX2">
-        <v>0.002633621217682958</v>
+        <v>0.002774662803858519</v>
       </c>
       <c r="GY2">
-        <v>0.00443274574354291</v>
+        <v>0.00407504104077816</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Regression/Equation/Pharmaceuticals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.003618856426328421</v>
+        <v>0.003777139587327838</v>
       </c>
       <c r="C2">
-        <v>0.05694806948304176</v>
+        <v>0.05167293176054955</v>
       </c>
       <c r="D2">
-        <v>-0.1645354330539703</v>
+        <v>-0.1516043394804001</v>
       </c>
       <c r="E2">
-        <v>-0.01721861772239208</v>
+        <v>-0.03770238533616066</v>
       </c>
       <c r="F2">
-        <v>0.01111666951328516</v>
+        <v>0.0121538657695055</v>
       </c>
       <c r="G2">
-        <v>0.02484319917857647</v>
+        <v>0.04566692560911179</v>
       </c>
       <c r="H2">
-        <v>-0.007447625510394573</v>
+        <v>-0.004927098285406828</v>
       </c>
       <c r="I2">
-        <v>-0.004139677621424198</v>
+        <v>-0.006942572072148323</v>
       </c>
       <c r="J2">
-        <v>0.01197991799563169</v>
+        <v>0.008023506030440331</v>
       </c>
       <c r="K2">
-        <v>-0.004977144300937653</v>
+        <v>0.00118731614202261</v>
       </c>
       <c r="L2">
-        <v>-0.003448636969551444</v>
+        <v>0.008346877060830593</v>
       </c>
       <c r="M2">
-        <v>0.007301787845790386</v>
+        <v>0.007550226058810949</v>
       </c>
       <c r="N2">
-        <v>0.01187373325228691</v>
+        <v>0.007237994577735662</v>
       </c>
       <c r="O2">
-        <v>0.05382027104496956</v>
+        <v>0.04745859652757645</v>
       </c>
       <c r="P2">
-        <v>-0.0584789477288723</v>
+        <v>-0.05244924128055573</v>
       </c>
       <c r="Q2">
-        <v>-0.02211262285709381</v>
+        <v>-0.03242402523756027</v>
       </c>
       <c r="R2">
-        <v>-0.005281105171889067</v>
+        <v>-0.001001392025500536</v>
       </c>
       <c r="S2">
-        <v>-0.009789321571588516</v>
+        <v>-0.02424715273082256</v>
       </c>
       <c r="T2">
-        <v>0.1049977466464043</v>
+        <v>0.1062252447009087</v>
       </c>
       <c r="U2">
-        <v>0.04826847463846207</v>
+        <v>0.04624671116471291</v>
       </c>
       <c r="V2">
-        <v>0.005065928678959608</v>
+        <v>0.007715802174061537</v>
       </c>
       <c r="W2">
-        <v>-0.0008887861622497439</v>
+        <v>-0.000205322474357672</v>
       </c>
       <c r="X2">
-        <v>-0.005947054363787174</v>
+        <v>0.007126014214009047</v>
       </c>
       <c r="Y2">
-        <v>-0.01741875149309635</v>
+        <v>-0.02772920951247215</v>
       </c>
       <c r="Z2">
-        <v>0.1006801947951317</v>
+        <v>0.08906303346157074</v>
       </c>
       <c r="AA2">
-        <v>0.007178876083344221</v>
+        <v>0.006606917828321457</v>
       </c>
       <c r="AB2">
-        <v>0.03747589513659477</v>
+        <v>0.03935808688402176</v>
       </c>
       <c r="AC2">
-        <v>-0.0575084462761879</v>
+        <v>-0.05856717377901077</v>
       </c>
       <c r="AD2">
-        <v>-0.06707668304443359</v>
+        <v>-0.0674436092376709</v>
       </c>
       <c r="AE2">
-        <v>0.04579007998108864</v>
+        <v>0.0594421960413456</v>
       </c>
       <c r="AF2">
-        <v>0.0007801486644893885</v>
+        <v>-0.002895929617807269</v>
       </c>
       <c r="AG2">
-        <v>-0.0968065932393074</v>
+        <v>-0.1026832982897758</v>
       </c>
       <c r="AH2">
-        <v>0.06236186251044273</v>
+        <v>0.05814076587557793</v>
       </c>
       <c r="AI2">
-        <v>-0.008460564538836479</v>
+        <v>-0.03000214509665966</v>
       </c>
       <c r="AJ2">
-        <v>-0.005668846424669027</v>
+        <v>-0.001009461819194257</v>
       </c>
       <c r="AK2">
-        <v>0.02027742937207222</v>
+        <v>0.0191021878272295</v>
       </c>
       <c r="AL2">
-        <v>0.0006550307152792811</v>
+        <v>-0.0003354278742335737</v>
       </c>
       <c r="AM2">
-        <v>-0.06169797852635384</v>
+        <v>-0.05108655616641045</v>
       </c>
       <c r="AN2">
-        <v>-0.1407123655080795</v>
+        <v>-0.1393945962190628</v>
       </c>
       <c r="AO2">
-        <v>0.04178585484623909</v>
+        <v>0.04104624688625336</v>
       </c>
       <c r="AP2">
-        <v>0.08197957277297974</v>
+        <v>0.0885956883430481</v>
       </c>
       <c r="AQ2">
-        <v>0.01406330987811089</v>
+        <v>0.008559702895581722</v>
       </c>
       <c r="AR2">
-        <v>0.07555272430181503</v>
+        <v>0.05806997045874596</v>
       </c>
       <c r="AS2">
-        <v>-0.008787546306848526</v>
+        <v>-0.008508797734975815</v>
       </c>
       <c r="AT2">
-        <v>0.07313327491283417</v>
+        <v>0.08444450795650482</v>
       </c>
       <c r="AU2">
-        <v>-0.02531437948346138</v>
+        <v>-0.01965793408453465</v>
       </c>
       <c r="AV2">
-        <v>-0.06542728096246719</v>
+        <v>-0.0585368350148201</v>
       </c>
       <c r="AW2">
-        <v>-0.003371267346665263</v>
+        <v>-0.001221712562255561</v>
       </c>
       <c r="AX2">
-        <v>-0.02670496329665184</v>
+        <v>-0.03037743642926216</v>
       </c>
       <c r="AY2">
-        <v>0.001140895416028798</v>
+        <v>0.003126860596239567</v>
       </c>
       <c r="AZ2">
-        <v>0.06897056847810745</v>
+        <v>0.04768555983901024</v>
       </c>
       <c r="BA2">
-        <v>-0.05873100832104683</v>
+        <v>-0.05641548708081245</v>
       </c>
       <c r="BB2">
-        <v>-0.0428127832710743</v>
+        <v>-0.05270214006304741</v>
       </c>
       <c r="BC2">
-        <v>0.00344848120585084</v>
+        <v>0.00273050251416862</v>
       </c>
       <c r="BD2">
-        <v>0.1512019038200378</v>
+        <v>0.1502519100904465</v>
       </c>
       <c r="BE2">
-        <v>-0.005054557230323553</v>
+        <v>0.003486547851935029</v>
       </c>
       <c r="BF2">
-        <v>-0.01504059880971909</v>
+        <v>-0.02324377559125423</v>
       </c>
       <c r="BG2">
-        <v>-0.005504564847797155</v>
+        <v>-0.007984749041497707</v>
       </c>
       <c r="BH2">
-        <v>-0.004640800878405571</v>
+        <v>-0.01244785543531179</v>
       </c>
       <c r="BI2">
-        <v>-0.05152240395545959</v>
+        <v>-0.04894053936004639</v>
       </c>
       <c r="BJ2">
-        <v>-0.04180442541837692</v>
+        <v>-0.04545646533370018</v>
       </c>
       <c r="BK2">
-        <v>-0.007599961012601852</v>
+        <v>-0.01001550257205963</v>
       </c>
       <c r="BL2">
-        <v>0.02896756678819656</v>
+        <v>0.02628345042467117</v>
       </c>
       <c r="BM2">
-        <v>-0.01557273510843515</v>
+        <v>-0.009178471751511097</v>
       </c>
       <c r="BN2">
-        <v>-0.03198451548814774</v>
+        <v>-0.03121697902679443</v>
       </c>
       <c r="BO2">
-        <v>0.01742321811616421</v>
+        <v>0.02246452495455742</v>
       </c>
       <c r="BP2">
-        <v>0.1235413700342178</v>
+        <v>0.1104583665728569</v>
       </c>
       <c r="BQ2">
-        <v>-0.07518333196640015</v>
+        <v>-0.07579997181892395</v>
       </c>
       <c r="BR2">
-        <v>-0.01461267564445734</v>
+        <v>-0.006698072887957096</v>
       </c>
       <c r="BS2">
-        <v>0.01196277979761362</v>
+        <v>0.004915028810501099</v>
       </c>
       <c r="BT2">
-        <v>-0.0003356024972163141</v>
+        <v>-3.339935574331321E-06</v>
       </c>
       <c r="BU2">
-        <v>0.00987643375992775</v>
+        <v>0.007875990122556686</v>
       </c>
       <c r="BV2">
-        <v>-0.1600791811943054</v>
+        <v>-0.1466630846261978</v>
       </c>
       <c r="BW2">
-        <v>0.008281509391963482</v>
+        <v>0.004868588410317898</v>
       </c>
       <c r="BX2">
-        <v>-0.2048008739948273</v>
+        <v>-0.2147318422794342</v>
       </c>
       <c r="BY2">
-        <v>0.006714743096381426</v>
+        <v>0.004993034061044455</v>
       </c>
       <c r="BZ2">
-        <v>0.03215323016047478</v>
+        <v>0.03034199774265289</v>
       </c>
       <c r="CA2">
-        <v>-0.05183194950222969</v>
+        <v>-0.04872964695096016</v>
       </c>
       <c r="CB2">
-        <v>-0.08218438923358917</v>
+        <v>-0.08383821696043015</v>
       </c>
       <c r="CC2">
-        <v>0.006063931155949831</v>
+        <v>0.005439248401671648</v>
       </c>
       <c r="CD2">
-        <v>0.001009023748338223</v>
+        <v>-0.0006297169020399451</v>
       </c>
       <c r="CE2">
-        <v>-0.1161801964044571</v>
+        <v>-0.1172503307461739</v>
       </c>
       <c r="CF2">
-        <v>0.003246615873649716</v>
+        <v>0.005288561806082726</v>
       </c>
       <c r="CG2">
-        <v>-0.1737044304609299</v>
+        <v>-0.1744315177202225</v>
       </c>
       <c r="CH2">
-        <v>0.02373159304261208</v>
+        <v>0.0007248820620588958</v>
       </c>
       <c r="CI2">
-        <v>-0.0005881277029402554</v>
+        <v>-0.002087699016556144</v>
       </c>
       <c r="CJ2">
-        <v>-0.03147098049521446</v>
+        <v>-0.04003528878092766</v>
       </c>
       <c r="CK2">
-        <v>0.009066927246749401</v>
+        <v>0.006781807634979486</v>
       </c>
       <c r="CL2">
-        <v>0.003539068857207894</v>
+        <v>0.001399286440573633</v>
       </c>
       <c r="CM2">
-        <v>0.07019151002168655</v>
+        <v>0.07308793812990189</v>
       </c>
       <c r="CN2">
-        <v>0.00516836391761899</v>
+        <v>-0.005723787471652031</v>
       </c>
       <c r="CO2">
-        <v>-0.001623338903300464</v>
+        <v>-0.002429283456876874</v>
       </c>
       <c r="CP2">
-        <v>0.04834544286131859</v>
+        <v>0.03831763193011284</v>
       </c>
       <c r="CQ2">
-        <v>0.04059213772416115</v>
+        <v>0.03569973260164261</v>
       </c>
       <c r="CR2">
-        <v>-0.001121190376579762</v>
+        <v>-0.008129963651299477</v>
       </c>
       <c r="CS2">
-        <v>-0.004737415816634893</v>
+        <v>-0.004366107285022736</v>
       </c>
       <c r="CT2">
-        <v>0.001082471688278019</v>
+        <v>0.001653970684856176</v>
       </c>
       <c r="CU2">
-        <v>-0.000254683691309765</v>
+        <v>0.001824777922593057</v>
       </c>
       <c r="CV2">
-        <v>0.006572981830686331</v>
+        <v>0.001339073525741696</v>
       </c>
       <c r="CW2">
-        <v>-0.04231340065598488</v>
+        <v>-0.03475493937730789</v>
       </c>
       <c r="CX2">
-        <v>7.162036490626633E-05</v>
+        <v>0.001834403607062995</v>
       </c>
       <c r="CY2">
-        <v>0.02446945384144783</v>
+        <v>0.02486386708915234</v>
       </c>
       <c r="CZ2">
-        <v>0.003984269220381975</v>
+        <v>0.0003222376108169556</v>
       </c>
       <c r="DA2">
-        <v>0.02361905388534069</v>
+        <v>0.02270706370472908</v>
       </c>
       <c r="DB2">
-        <v>-0.02839489281177521</v>
+        <v>-0.01387279015034437</v>
       </c>
       <c r="DC2">
-        <v>-0.002013871911913157</v>
+        <v>-0.008815686218440533</v>
       </c>
       <c r="DD2">
-        <v>-0.1202394291758537</v>
+        <v>-0.1317787021398544</v>
       </c>
       <c r="DE2">
-        <v>-0.000802157970611006</v>
+        <v>-0.0005754124140366912</v>
       </c>
       <c r="DF2">
-        <v>0.0274672657251358</v>
+        <v>0.02012448012828827</v>
       </c>
       <c r="DG2">
-        <v>0.009710410609841347</v>
+        <v>0.01077798288315535</v>
       </c>
       <c r="DH2">
-        <v>-0.06197711825370789</v>
+        <v>-0.07484529912471771</v>
       </c>
       <c r="DI2">
-        <v>-0.005348213482648134</v>
+        <v>-0.005478502251207829</v>
       </c>
       <c r="DJ2">
-        <v>-0.01186463143676519</v>
+        <v>-0.0005255715223029256</v>
       </c>
       <c r="DK2">
-        <v>0.02946819178760052</v>
+        <v>0.04374801367521286</v>
       </c>
       <c r="DL2">
-        <v>0.06794703006744385</v>
+        <v>0.06811308860778809</v>
       </c>
       <c r="DM2">
-        <v>0.00744110532104969</v>
+        <v>0.01555410586297512</v>
       </c>
       <c r="DN2">
-        <v>0.03063391707837582</v>
+        <v>0.02854490838944912</v>
       </c>
       <c r="DO2">
-        <v>0.01569591276347637</v>
+        <v>0.02144599705934525</v>
       </c>
       <c r="DP2">
-        <v>-0.01323973666876554</v>
+        <v>-0.01949027739465237</v>
       </c>
       <c r="DQ2">
-        <v>0.004801901057362556</v>
+        <v>0.002786562079563737</v>
       </c>
       <c r="DR2">
-        <v>0.009476808831095695</v>
+        <v>0.004095933400094509</v>
       </c>
       <c r="DS2">
-        <v>-0.09138487279415131</v>
+        <v>-0.08997323364019394</v>
       </c>
       <c r="DT2">
-        <v>-0.0485309511423111</v>
+        <v>-0.04035503044724464</v>
       </c>
       <c r="DU2">
-        <v>0.02613893151283264</v>
+        <v>0.02596685662865639</v>
       </c>
       <c r="DV2">
-        <v>0.000189750106073916</v>
+        <v>-0.003193761454895139</v>
       </c>
       <c r="DW2">
-        <v>0.0005519556580111384</v>
+        <v>0.01448015961796045</v>
       </c>
       <c r="DX2">
-        <v>-0.04760740324854851</v>
+        <v>-0.04822089895606041</v>
       </c>
       <c r="DY2">
-        <v>-0.05361677333712578</v>
+        <v>-0.06396704167127609</v>
       </c>
       <c r="DZ2">
-        <v>-0.002665718784555793</v>
+        <v>-0.00526780541986227</v>
       </c>
       <c r="EA2">
-        <v>0.01283814013004303</v>
+        <v>0.01955795474350452</v>
       </c>
       <c r="EB2">
-        <v>-0.08301893621683121</v>
+        <v>-0.08355247229337692</v>
       </c>
       <c r="EC2">
-        <v>0.0006695098127238452</v>
+        <v>-0.005643694195896387</v>
       </c>
       <c r="ED2">
-        <v>-0.1265598982572556</v>
+        <v>-0.1255380213260651</v>
       </c>
       <c r="EE2">
-        <v>0.006656865123659372</v>
+        <v>0.006609455216675997</v>
       </c>
       <c r="EF2">
-        <v>0.1443788260221481</v>
+        <v>0.135649785399437</v>
       </c>
       <c r="EG2">
-        <v>-0.01427836716175079</v>
+        <v>-0.01673563756048679</v>
       </c>
       <c r="EH2">
-        <v>-0.09801837056875229</v>
+        <v>-0.1003996357321739</v>
       </c>
       <c r="EI2">
-        <v>0.1365975439548492</v>
+        <v>0.1312317848205566</v>
       </c>
       <c r="EJ2">
-        <v>-0.08473888784646988</v>
+        <v>-0.1030767560005188</v>
       </c>
       <c r="EK2">
-        <v>-0.0034650310408324</v>
+        <v>-0.005126916337758303</v>
       </c>
       <c r="EL2">
-        <v>-0.003620139788836241</v>
+        <v>-0.005120588932186365</v>
       </c>
       <c r="EM2">
-        <v>-0.09645704180002213</v>
+        <v>-0.1106367856264114</v>
       </c>
       <c r="EN2">
-        <v>-0.009135665372014046</v>
+        <v>-0.004647338297218084</v>
       </c>
       <c r="EO2">
-        <v>-0.06290974467992783</v>
+        <v>-0.06273330748081207</v>
       </c>
       <c r="EP2">
-        <v>0.07856548577547073</v>
+        <v>0.07533030211925507</v>
       </c>
       <c r="EQ2">
-        <v>0.04634479060769081</v>
+        <v>0.03299904242157936</v>
       </c>
       <c r="ER2">
-        <v>-0.001457569189369678</v>
+        <v>0.00854775682091713</v>
       </c>
       <c r="ES2">
-        <v>-0.03631939738988876</v>
+        <v>-0.03974706307053566</v>
       </c>
       <c r="ET2">
-        <v>-0.1206590905785561</v>
+        <v>-0.1147231310606003</v>
       </c>
       <c r="EU2">
-        <v>0.05314871296286583</v>
+        <v>0.0591687336564064</v>
       </c>
       <c r="EV2">
-        <v>-0.0620512068271637</v>
+        <v>-0.06141559034585953</v>
       </c>
       <c r="EW2">
-        <v>0.01680160872638226</v>
+        <v>0.01553526800125837</v>
       </c>
       <c r="EX2">
-        <v>-0.166370153427124</v>
+        <v>-0.1566569209098816</v>
       </c>
       <c r="EY2">
-        <v>0.009359342977404594</v>
+        <v>0.006536033935844898</v>
       </c>
       <c r="EZ2">
-        <v>0.006080003920942545</v>
+        <v>0.008642555214464664</v>
       </c>
       <c r="FA2">
-        <v>-0.0002718377509154379</v>
+        <v>-0.005515295080840588</v>
       </c>
       <c r="FB2">
-        <v>-0.003186993300914764</v>
+        <v>-0.003802753519266844</v>
       </c>
       <c r="FC2">
-        <v>-0.07342113554477692</v>
+        <v>-0.08346671611070633</v>
       </c>
       <c r="FD2">
-        <v>-0.006164388731122017</v>
+        <v>-0.007730778772383928</v>
       </c>
       <c r="FE2">
-        <v>0.004424875136464834</v>
+        <v>0.001846901024691761</v>
       </c>
       <c r="FF2">
-        <v>-0.09426827728748322</v>
+        <v>-0.08560195565223694</v>
       </c>
       <c r="FG2">
-        <v>-0.1117979362607002</v>
+        <v>-0.1270490288734436</v>
       </c>
       <c r="FH2">
-        <v>0.003854866372421384</v>
+        <v>0.004047679714858532</v>
       </c>
       <c r="FI2">
-        <v>0.01754601113498211</v>
+        <v>0.0305351410061121</v>
       </c>
       <c r="FJ2">
-        <v>0.02302427962422371</v>
+        <v>0.02346230670809746</v>
       </c>
       <c r="FK2">
-        <v>0.05376879498362541</v>
+        <v>0.04181186482310295</v>
       </c>
       <c r="FL2">
-        <v>0.004766937345266342</v>
+        <v>-0.01034283824265003</v>
       </c>
       <c r="FM2">
-        <v>0.1028140187263489</v>
+        <v>0.1035237312316895</v>
       </c>
       <c r="FN2">
-        <v>0.01350330654531717</v>
+        <v>0.01105742156505585</v>
       </c>
       <c r="FO2">
-        <v>0.004677379969507456</v>
+        <v>0.001047563273459673</v>
       </c>
       <c r="FP2">
-        <v>0.004901404026895761</v>
+        <v>0.003162063891068101</v>
       </c>
       <c r="FQ2">
-        <v>0.00255850818939507</v>
+        <v>0.001609157538041472</v>
       </c>
       <c r="FR2">
-        <v>0.002919680206105113</v>
+        <v>0.001646205666474998</v>
       </c>
       <c r="FS2">
-        <v>0.007270658854395151</v>
+        <v>0.006925173569470644</v>
       </c>
       <c r="FT2">
-        <v>0.006768448278307915</v>
+        <v>0.007087866775691509</v>
       </c>
       <c r="FU2">
-        <v>-0.02795194648206234</v>
+        <v>-0.02583789266645908</v>
       </c>
       <c r="FV2">
-        <v>-0.01984099671244621</v>
+        <v>-0.02148306742310524</v>
       </c>
       <c r="FW2">
-        <v>-0.02842335589230061</v>
+        <v>-0.02760463953018188</v>
       </c>
       <c r="FX2">
-        <v>0.001403044094331563</v>
+        <v>0.003804842242971063</v>
       </c>
       <c r="FY2">
-        <v>-0.003412414807826281</v>
+        <v>0.004656150937080383</v>
       </c>
       <c r="FZ2">
-        <v>-0.002112314570695162</v>
+        <v>0.005474396049976349</v>
       </c>
       <c r="GA2">
-        <v>-0.04454853385686874</v>
+        <v>-0.03803678974509239</v>
       </c>
       <c r="GB2">
-        <v>0.005542906001210213</v>
+        <v>-0.0003927913203369826</v>
       </c>
       <c r="GC2">
-        <v>-0.07775930315256119</v>
+        <v>-0.07587648928165436</v>
       </c>
       <c r="GD2">
-        <v>0.07132899016141891</v>
+        <v>0.06064675748348236</v>
       </c>
       <c r="GE2">
-        <v>-0.0009016970288939774</v>
+        <v>-0.001953561324626207</v>
       </c>
       <c r="GF2">
-        <v>0.001100638648495078</v>
+        <v>0.006934356410056353</v>
       </c>
       <c r="GG2">
-        <v>-0.001086956355720758</v>
+        <v>-0.01941238157451153</v>
       </c>
       <c r="GH2">
-        <v>0.003830061294138432</v>
+        <v>-0.0009134899592027068</v>
       </c>
       <c r="GI2">
-        <v>-0.1414594352245331</v>
+        <v>-0.153214305639267</v>
       </c>
       <c r="GJ2">
-        <v>-0.00885913148522377</v>
+        <v>0.0004287956398911774</v>
       </c>
       <c r="GK2">
-        <v>0.01759741269052029</v>
+        <v>0.01180088892579079</v>
       </c>
       <c r="GL2">
-        <v>0.02324025519192219</v>
+        <v>0.01637017726898193</v>
       </c>
       <c r="GM2">
-        <v>-0.07995506376028061</v>
+        <v>-0.09160572290420532</v>
       </c>
       <c r="GN2">
-        <v>-0.01074447948485613</v>
+        <v>-0.02166618406772614</v>
       </c>
       <c r="GO2">
-        <v>-0.03306335210800171</v>
+        <v>-0.03653669729828835</v>
       </c>
       <c r="GP2">
-        <v>0.01144189666956663</v>
+        <v>0.01186027005314827</v>
       </c>
       <c r="GQ2">
-        <v>0.011181665584445</v>
+        <v>0.0005903166602365673</v>
       </c>
       <c r="GR2">
-        <v>0.003769772592931986</v>
+        <v>0.006929911207407713</v>
       </c>
       <c r="GS2">
-        <v>-0.01550665497779846</v>
+        <v>-0.0268775038421154</v>
       </c>
       <c r="GT2">
-        <v>0.01152579579502344</v>
+        <v>0.005741331726312637</v>
       </c>
       <c r="GU2">
-        <v>-0.004456113092601299</v>
+        <v>-0.001300006522797048</v>
       </c>
       <c r="GV2">
-        <v>-0.00185315974522382</v>
+        <v>-0.003710084361955523</v>
       </c>
       <c r="GW2">
-        <v>-0.03758150711655617</v>
+        <v>-0.03389003500342369</v>
       </c>
       <c r="GX2">
-        <v>0.002774662803858519</v>
+        <v>-0.0004379308375064284</v>
       </c>
       <c r="GY2">
-        <v>0.00407504104077816</v>
+        <v>0.003459347179159522</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Regression/Equation/Pharmaceuticals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.006404334679245949</v>
+        <v>0.00997621938586235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0540735051035881</v>
+        <v>0.05842414870858192</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1564580053091049</v>
+        <v>-0.1538583636283875</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0448232889175415</v>
+        <v>-0.04452336952090263</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003180912230163813</v>
+        <v>0.00764829944819212</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04344700649380684</v>
+        <v>0.05156871676445007</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00592836644500494</v>
+        <v>-0.005775564815849066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.005082823801785707</v>
+        <v>-0.006545687094330788</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01136595103889704</v>
+        <v>0.002910814015194774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001105008996091783</v>
+        <v>-0.002740747993811965</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006498781498521566</v>
+        <v>0.0006981167243793607</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01172330975532532</v>
+        <v>0.008745423518121243</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007854115217924118</v>
+        <v>0.009927565231919289</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05202917754650116</v>
+        <v>0.0413537286221981</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.04632823914289474</v>
+        <v>-0.03937240689992905</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02508890815079212</v>
+        <v>-0.02068398334085941</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.000980455195531249</v>
+        <v>0.001376500586047769</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01537708565592766</v>
+        <v>-0.01372991409152746</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1037542968988419</v>
+        <v>0.1029970794916153</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0424833782017231</v>
+        <v>0.04670264571905136</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01157402247190475</v>
+        <v>0.004609907511621714</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.003442870685830712</v>
+        <v>-0.007989940233528614</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0007056993199512362</v>
+        <v>0.004473742097616196</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.03646903857588768</v>
+        <v>-0.03162598237395287</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08855327963829041</v>
+        <v>0.08402459323406219</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.008158888667821884</v>
+        <v>0.006770073436200619</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04324443265795708</v>
+        <v>0.04992135241627693</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.05285647138953209</v>
+        <v>-0.04754650592803955</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.06713429093360901</v>
+        <v>-0.06769527494907379</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06354252994060516</v>
+        <v>0.06061136722564697</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.002441724063828588</v>
+        <v>-0.001337989815510809</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0958113819360733</v>
+        <v>-0.08979334682226181</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05907713621854782</v>
+        <v>0.05223894491791725</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02912722900509834</v>
+        <v>-0.02972244657576084</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.0006325557478703558</v>
+        <v>-0.005856027826666832</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01332246232777834</v>
+        <v>0.01132140681147575</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.005504039581865072</v>
+        <v>-0.008614744059741497</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.04491208121180534</v>
+        <v>-0.03697938844561577</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1345829665660858</v>
+        <v>-0.1440083086490631</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.04415756836533546</v>
+        <v>0.05285327881574631</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.09018103778362274</v>
+        <v>0.09574279189109802</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.007753289770334959</v>
+        <v>0.01303602010011673</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05341771617531776</v>
+        <v>0.05535442754626274</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.009217223152518272</v>
+        <v>-0.01854747161269188</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.08601991087198257</v>
+        <v>0.09076867997646332</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0228913202881813</v>
+        <v>-0.02014855295419693</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.05657923966646194</v>
+        <v>-0.04962288960814476</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.002573329256847501</v>
+        <v>-0.005928155966103077</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.03619660064578056</v>
+        <v>-0.04045173525810242</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.009404785931110382</v>
+        <v>0.0004629386239685118</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03761507570743561</v>
+        <v>0.03310852125287056</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.05583713203668594</v>
+        <v>-0.05005852878093719</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.05117759108543396</v>
+        <v>-0.04441371560096741</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.001121215405873954</v>
+        <v>0.0009995473083108664</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1508708596229553</v>
+        <v>0.1507227420806885</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.001374319195747375</v>
+        <v>-0.007023435551673174</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01901141926646233</v>
+        <v>-0.0159462783485651</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.007090671919286251</v>
+        <v>-0.004839637316763401</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.006719494704157114</v>
+        <v>-0.002126353327184916</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.05061544477939606</v>
+        <v>-0.0500580370426178</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.04491634666919708</v>
+        <v>-0.04811252653598785</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0101150032132864</v>
+        <v>-0.0113940741866827</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02859806083142757</v>
+        <v>0.02828936651349068</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.007558898068964481</v>
+        <v>-0.006229843478649855</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.02719227597117424</v>
+        <v>-0.02370519191026688</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01971736922860146</v>
+        <v>0.02117006666958332</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1124122366309166</v>
+        <v>0.1067038998007774</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.06825388967990875</v>
+        <v>-0.07734158635139465</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.008101056329905987</v>
+        <v>-0.0067644570954144</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.003794471267610788</v>
+        <v>-0.001731965225189924</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.007992944680154324</v>
+        <v>-0.01041847839951515</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.008961739018559456</v>
+        <v>0.01123971771448851</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.1491235345602036</v>
+        <v>-0.1409115642309189</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.000540749286301434</v>
+        <v>0.009452275931835175</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.2102729827165604</v>
+        <v>-0.2157656103372574</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001222014660015702</v>
+        <v>-0.00229098298586905</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.03494640439748764</v>
+        <v>0.03973767533898354</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.05158435553312302</v>
+        <v>-0.04985509067773819</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.07947687804698944</v>
+        <v>-0.09046632796525955</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00676102377474308</v>
+        <v>0.008496811613440514</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.002284337533637881</v>
+        <v>-0.002433436224237084</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.1136668100953102</v>
+        <v>-0.1049632653594017</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.004194870125502348</v>
+        <v>-0.0005709543474949896</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.1840633898973465</v>
+        <v>-0.196264922618866</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.004110712092369795</v>
+        <v>-0.007753601763397455</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.001805361127480865</v>
+        <v>-0.003063034499064088</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.03864571452140808</v>
+        <v>-0.04792835563421249</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.007584278471767902</v>
+        <v>0.008566452190279961</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.002687320811673999</v>
+        <v>0.001552295754663646</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.07618684321641922</v>
+        <v>0.06817524880170822</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.003590888110920787</v>
+        <v>-0.006752653047442436</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.003081107046455145</v>
+        <v>-0.001419430249370635</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.04246208071708679</v>
+        <v>0.04383900016546249</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.03639145195484161</v>
+        <v>0.03788743540644646</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.002514642663300037</v>
+        <v>-0.003348259488120675</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.006910303607583046</v>
+        <v>-0.01014461927115917</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.003150553675368428</v>
+        <v>0.002493508625775576</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.006452506873756647</v>
+        <v>0.0005597628769464791</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.002081465208902955</v>
+        <v>0.00107137521263212</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.03438702970743179</v>
+        <v>-0.03307413682341576</v>
       </c>
       <c r="CX2" t="n">
-        <v>9.110575047088787e-05</v>
+        <v>2.058956670225598e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0256077479571104</v>
+        <v>0.02456697635352612</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002192132407799363</v>
+        <v>0.001185464090667665</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.01101637724786997</v>
+        <v>-0.0006849189521744847</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0166011992841959</v>
+        <v>-0.01917081512510777</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0056638871319592</v>
+        <v>-0.0008658482111059129</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.127815306186676</v>
+        <v>-0.1281208544969559</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0009150725672952831</v>
+        <v>-0.002678238088265061</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.01948773115873337</v>
+        <v>0.02510123513638973</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.007310928776860237</v>
+        <v>0.0008730698609724641</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.07648693770170212</v>
+        <v>-0.08238940685987473</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.003522188868373632</v>
+        <v>0.003946842160075903</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.007031326647847891</v>
+        <v>-0.00425237650051713</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.04141294211149216</v>
+        <v>0.03333931788802147</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.05745672434568405</v>
+        <v>0.04821640625596046</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.009113365784287453</v>
+        <v>0.01616638153791428</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02961389347910881</v>
+        <v>0.03242527320981026</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.02643827721476555</v>
+        <v>0.02666721679270267</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01663968712091446</v>
+        <v>-0.0126980934292078</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.003197521902620792</v>
+        <v>0.003355620661750436</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.002382640494033694</v>
+        <v>0.005431416910141706</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.08521980047225952</v>
+        <v>-0.08126042038202286</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.03835722431540489</v>
+        <v>-0.0305419135838747</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.02138899639248848</v>
+        <v>0.0261195283383131</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.002969523193314672</v>
+        <v>0.002180985175073147</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0125430878251791</v>
+        <v>0.008541349321603775</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.04742515459656715</v>
+        <v>-0.04850443080067635</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.05703620240092278</v>
+        <v>-0.06646402180194855</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.0008745139348320663</v>
+        <v>-0.001699610962532461</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.01783303543925285</v>
+        <v>0.02047726698219776</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.08341743797063828</v>
+        <v>-0.08293116092681885</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.008470007218420506</v>
+        <v>-0.01033127121627331</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.1278938055038452</v>
+        <v>-0.1255040019750595</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.004868338815867901</v>
+        <v>0.002165257697924972</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1314286440610886</v>
+        <v>0.1258700340986252</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.01243072003126144</v>
+        <v>-0.006949008442461491</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.09715972095727921</v>
+        <v>-0.09459212422370911</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.1352169960737228</v>
+        <v>0.1404628306627274</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1051328554749489</v>
+        <v>-0.1019334048032761</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.004046639893203974</v>
+        <v>-0.004166711587458849</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.005281651392579079</v>
+        <v>-0.003461141604930162</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.1169256716966629</v>
+        <v>-0.112953707575798</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.002912563038989902</v>
+        <v>0.005128988996148109</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.06662983447313309</v>
+        <v>-0.071212999522686</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.07146088778972626</v>
+        <v>0.06572400033473969</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.03394094854593277</v>
+        <v>0.0335652194917202</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0018653420265764</v>
+        <v>-0.0008058144594542682</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.04557696729898453</v>
+        <v>-0.05149393156170845</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.1090254336595535</v>
+        <v>-0.1011898964643478</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.05764525011181831</v>
+        <v>0.06449594348669052</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.0543212890625</v>
+        <v>-0.04630012437701225</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.01774799264967442</v>
+        <v>0.01619380153715611</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1571283787488937</v>
+        <v>-0.1627520024776459</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.008028149604797363</v>
+        <v>0.01029574312269688</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.01164405327290297</v>
+        <v>0.004723027814179659</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.007686787750571966</v>
+        <v>-0.00309209618717432</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.003568163374438882</v>
+        <v>-0.003243302693590522</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.08437041938304901</v>
+        <v>-0.09070423245429993</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.005647480022162199</v>
+        <v>-0.006469450891017914</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0002285951923113316</v>
+        <v>0.005221754312515259</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.08336798101663589</v>
+        <v>-0.07783135026693344</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1313158124685287</v>
+        <v>-0.1341451555490494</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.004561899229884148</v>
+        <v>0.01069981046020985</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.03400504216551781</v>
+        <v>0.02779820561408997</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.02759329974651337</v>
+        <v>0.03259560465812683</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.03688816726207733</v>
+        <v>0.03417031839489937</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.007754112593829632</v>
+        <v>-0.002762780990451574</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.09802430868148804</v>
+        <v>0.1040404140949249</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.01262816693633795</v>
+        <v>0.01176892779767513</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.0003005247563123703</v>
+        <v>0.003116768784821033</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.003547647502273321</v>
+        <v>0.0003245800035074353</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.0007126060663722456</v>
+        <v>0.001206051907502115</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.002017187653109431</v>
+        <v>0.002286460949108005</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.008371694013476372</v>
+        <v>0.007465525530278683</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.006496511865407228</v>
+        <v>0.008440372534096241</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.02827966213226318</v>
+        <v>-0.02495026215910912</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.02041938155889511</v>
+        <v>-0.0186198465526104</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.02740230970084667</v>
+        <v>-0.02813171967864037</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.00603880500420928</v>
+        <v>-0.00253276783041656</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.009917929768562317</v>
+        <v>0.01132602337747812</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.006943749729543924</v>
+        <v>-0.001355541404336691</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.03142228350043297</v>
+        <v>-0.02571661025285721</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0009350007749162614</v>
+        <v>-0.007624490652233362</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.06799221038818359</v>
+        <v>-0.07580067217350006</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0668717622756958</v>
+        <v>0.06082670763134956</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.00214543379843235</v>
+        <v>-0.0005178653518669307</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.003662295406684279</v>
+        <v>0.0081065334379673</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.01768956892192364</v>
+        <v>-0.02028808183968067</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.001750102848745883</v>
+        <v>-6.881164154037833e-05</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.1443453878164291</v>
+        <v>-0.1509506106376648</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.001606204430572689</v>
+        <v>-0.001304309815168381</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.0139091182500124</v>
+        <v>0.02284226752817631</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.01400837488472462</v>
+        <v>0.02070398069918156</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.09396727383136749</v>
+        <v>-0.09331841021776199</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.02186114527285099</v>
+        <v>-0.02877790294587612</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.02885344438254833</v>
+        <v>-0.02116715535521507</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.01290715485811234</v>
+        <v>0.01234093494713306</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.004495901055634022</v>
+        <v>0.002420934848487377</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.0001092209931812249</v>
+        <v>-0.01105842273682356</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.03306207805871964</v>
+        <v>-0.03163756430149078</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.003867810824885964</v>
+        <v>0.001997339073568583</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.002528625307604671</v>
+        <v>-0.00565766915678978</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.002318671438843012</v>
+        <v>-0.007162470836192369</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.02856140770018101</v>
+        <v>-0.03559132665395737</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.0006730813183821738</v>
+        <v>0.004005200229585171</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.00380547228269279</v>
+        <v>0.003465024987235665</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Regression/Equation/Pharmaceuticals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00997621938586235</v>
+        <v>0.01090322155505419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05842414870858192</v>
+        <v>0.04646569490432739</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1538583636283875</v>
+        <v>-0.1421891152858734</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04452336952090263</v>
+        <v>-0.05457354709506035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00764829944819212</v>
+        <v>0.005614027846604586</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05156871676445007</v>
+        <v>0.05981044471263885</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.005775564815849066</v>
+        <v>-0.01420849282294512</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006545687094330788</v>
+        <v>-0.006749445572495461</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002910814015194774</v>
+        <v>0.005743320100009441</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.002740747993811965</v>
+        <v>-0.004572754725813866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006981167243793607</v>
+        <v>0.002962243277579546</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008745423518121243</v>
+        <v>0.006166937761008739</v>
       </c>
       <c r="N2" t="n">
-        <v>0.009927565231919289</v>
+        <v>0.01090652961283922</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0413537286221981</v>
+        <v>0.03858370333909988</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.03937240689992905</v>
+        <v>-0.05060030147433281</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02068398334085941</v>
+        <v>-0.02490799501538277</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001376500586047769</v>
+        <v>-0.002447196980938315</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01372991409152746</v>
+        <v>-0.01091132685542107</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1029970794916153</v>
+        <v>0.1019796878099442</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04670264571905136</v>
+        <v>0.04954630509018898</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004609907511621714</v>
+        <v>0.001440324587747455</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.007989940233528614</v>
+        <v>-0.01232654042541981</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004473742097616196</v>
+        <v>-0.001565023674629629</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.03162598237395287</v>
+        <v>-0.03773430362343788</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08402459323406219</v>
+        <v>0.09094388037919998</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006770073436200619</v>
+        <v>0.01053460221737623</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04992135241627693</v>
+        <v>0.0509357713162899</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.04754650592803955</v>
+        <v>-0.04622188955545425</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.06769527494907379</v>
+        <v>-0.06826864182949066</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06061136722564697</v>
+        <v>0.05834538862109184</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.001337989815510809</v>
+        <v>-0.003869072301313281</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.08979334682226181</v>
+        <v>-0.08395826071500778</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05223894491791725</v>
+        <v>0.04963144287467003</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.02972244657576084</v>
+        <v>-0.02668503299355507</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.005856027826666832</v>
+        <v>-0.008098709397017956</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01132140681147575</v>
+        <v>0.009792124852538109</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.008614744059741497</v>
+        <v>0.0005975758540444076</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.03697938844561577</v>
+        <v>-0.04424663633108139</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1440083086490631</v>
+        <v>-0.1336939632892609</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.05285327881574631</v>
+        <v>0.05833729356527328</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.09574279189109802</v>
+        <v>0.08764208108186722</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01303602010011673</v>
+        <v>0.01409566774964333</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05535442754626274</v>
+        <v>0.05329081788659096</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.01854747161269188</v>
+        <v>-0.0190243236720562</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.09076867997646332</v>
+        <v>0.09621176868677139</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02014855295419693</v>
+        <v>-0.01813087984919548</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.04962288960814476</v>
+        <v>-0.0436028465628624</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.005928155966103077</v>
+        <v>-0.003118450753390789</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.04045173525810242</v>
+        <v>-0.04759465530514717</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0004629386239685118</v>
+        <v>0.008851757273077965</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03310852125287056</v>
+        <v>0.03075353614985943</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.05005852878093719</v>
+        <v>-0.0514502041041851</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.04441371560096741</v>
+        <v>-0.04670951887965202</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0009995473083108664</v>
+        <v>-0.005183906760066748</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1507227420806885</v>
+        <v>0.1503241509199142</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.007023435551673174</v>
+        <v>-0.004824653267860413</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.0159462783485651</v>
+        <v>-0.0118912011384964</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.004839637316763401</v>
+        <v>-0.005901956930756569</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.002126353327184916</v>
+        <v>-0.002053184434771538</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.0500580370426178</v>
+        <v>-0.05240754783153534</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.04811252653598785</v>
+        <v>-0.0481639988720417</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0113940741866827</v>
+        <v>-0.01031638495624065</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02828936651349068</v>
+        <v>0.02890976890921593</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.006229843478649855</v>
+        <v>-0.009154541417956352</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.02370519191026688</v>
+        <v>-0.03051649034023285</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02117006666958332</v>
+        <v>0.0146660627797246</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1067038998007774</v>
+        <v>0.1037932559847832</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.07734158635139465</v>
+        <v>-0.07650233060121536</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.0067644570954144</v>
+        <v>-0.0004885022062808275</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.001731965225189924</v>
+        <v>0.002861231798306108</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.01041847839951515</v>
+        <v>-0.006023174151778221</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.01123971771448851</v>
+        <v>0.009434003382921219</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.1409115642309189</v>
+        <v>-0.1328750550746918</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.009452275931835175</v>
+        <v>0.01631476357579231</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.2157656103372574</v>
+        <v>-0.2132358998060226</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00229098298586905</v>
+        <v>0.003306414699181914</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.03973767533898354</v>
+        <v>0.04004088416695595</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.04985509067773819</v>
+        <v>-0.04808401316404343</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.09046632796525955</v>
+        <v>-0.08124964684247971</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.008496811613440514</v>
+        <v>0.008039692416787148</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.002433436224237084</v>
+        <v>-0.000734353787265718</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.1049632653594017</v>
+        <v>-0.09763472527265549</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.0005709543474949896</v>
+        <v>-0.001764316693879664</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.196264922618866</v>
+        <v>-0.1953607052564621</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.007753601763397455</v>
+        <v>-0.01163521502166986</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.003063034499064088</v>
+        <v>-0.003553148591890931</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.04792835563421249</v>
+        <v>-0.04947663843631744</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.008566452190279961</v>
+        <v>0.008201812393963337</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001552295754663646</v>
+        <v>0.00225700088776648</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.06817524880170822</v>
+        <v>0.06442850828170776</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.006752653047442436</v>
+        <v>-0.0006788125610910356</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.001419430249370635</v>
+        <v>-0.002343624364584684</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.04383900016546249</v>
+        <v>0.04139849916100502</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.03788743540644646</v>
+        <v>0.03626932576298714</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.003348259488120675</v>
+        <v>-0.002038324950262904</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.01014461927115917</v>
+        <v>-0.01090158428996801</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.002493508625775576</v>
+        <v>0.002479427261278033</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0005597628769464791</v>
+        <v>0.004345610737800598</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00107137521263212</v>
+        <v>0.002068878151476383</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.03307413682341576</v>
+        <v>-0.04074936360120773</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.058956670225598e-05</v>
+        <v>-0.007463572546839714</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02456697635352612</v>
+        <v>0.0260561890900135</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.001185464090667665</v>
+        <v>0.00328535889275372</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0006849189521744847</v>
+        <v>-0.01251580752432346</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.01917081512510777</v>
+        <v>-0.02952620014548302</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0008658482111059129</v>
+        <v>0.007016571238636971</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.1281208544969559</v>
+        <v>-0.1280979514122009</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.002678238088265061</v>
+        <v>-0.002681754995137453</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02510123513638973</v>
+        <v>0.02544600330293179</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0008730698609724641</v>
+        <v>-0.003991426434367895</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.08238940685987473</v>
+        <v>-0.07875393331050873</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.003946842160075903</v>
+        <v>0.002687033032998443</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.00425237650051713</v>
+        <v>0.003928403835743666</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.03333931788802147</v>
+        <v>0.03139099478721619</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.04821640625596046</v>
+        <v>0.04549978673458099</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01616638153791428</v>
+        <v>0.01807556301355362</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.03242527320981026</v>
+        <v>0.03103999979794025</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.02666721679270267</v>
+        <v>0.02212399244308472</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.0126980934292078</v>
+        <v>-0.01252809353172779</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.003355620661750436</v>
+        <v>0.00310664321295917</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.005431416910141706</v>
+        <v>0.00138811010401696</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.08126042038202286</v>
+        <v>-0.09355636686086655</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.0305419135838747</v>
+        <v>-0.03865713626146317</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0261195283383131</v>
+        <v>0.02730207145214081</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.002180985175073147</v>
+        <v>-0.002429550979286432</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.008541349321603775</v>
+        <v>-0.002286052796989679</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.04850443080067635</v>
+        <v>-0.04909631237387657</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.06646402180194855</v>
+        <v>-0.07204031199216843</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.001699610962532461</v>
+        <v>0.0003861108853016049</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02047726698219776</v>
+        <v>0.01833882927894592</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.08293116092681885</v>
+        <v>-0.0835435763001442</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.01033127121627331</v>
+        <v>-0.01033623237162828</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.1255040019750595</v>
+        <v>-0.1271799057722092</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.002165257697924972</v>
+        <v>0.001011696760542691</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1258700340986252</v>
+        <v>0.1229159012436867</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.006949008442461491</v>
+        <v>-0.006160353776067495</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.09459212422370911</v>
+        <v>-0.08663912862539291</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.1404628306627274</v>
+        <v>0.1368847489356995</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.1019334048032761</v>
+        <v>-0.1121148690581322</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.004166711587458849</v>
+        <v>-0.004103109706193209</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.003461141604930162</v>
+        <v>-0.004364489112049341</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.112953707575798</v>
+        <v>-0.1207882240414619</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.005128988996148109</v>
+        <v>-0.002798438770696521</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.071212999522686</v>
+        <v>-0.06769024580717087</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.06572400033473969</v>
+        <v>0.06737484782934189</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0335652194917202</v>
+        <v>0.03372642397880554</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.0008058144594542682</v>
+        <v>-0.001330679631792009</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.05149393156170845</v>
+        <v>-0.05030019953846931</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.1011898964643478</v>
+        <v>-0.1138820350170135</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.06449594348669052</v>
+        <v>0.05788667872548103</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.04630012437701225</v>
+        <v>-0.05870435759425163</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.01619380153715611</v>
+        <v>0.02085192315280437</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1627520024776459</v>
+        <v>-0.1661794781684875</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01029574312269688</v>
+        <v>0.009061353281140327</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.004723027814179659</v>
+        <v>0.004727995954453945</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.00309209618717432</v>
+        <v>-0.003835821524262428</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.003243302693590522</v>
+        <v>-0.003196566598489881</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.09070423245429993</v>
+        <v>-0.08656036108732224</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.006469450891017914</v>
+        <v>-0.003502344945445657</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.005221754312515259</v>
+        <v>-0.002509072655811906</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.07783135026693344</v>
+        <v>-0.08923431485891342</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1341451555490494</v>
+        <v>-0.1356442868709564</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.01069981046020985</v>
+        <v>0.000215421270695515</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.02779820561408997</v>
+        <v>0.02110993303358555</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.03259560465812683</v>
+        <v>0.02915064059197903</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.03417031839489937</v>
+        <v>0.02535318024456501</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.002762780990451574</v>
+        <v>-0.008130819536745548</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.1040404140949249</v>
+        <v>0.09819240868091583</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.01176892779767513</v>
+        <v>0.01382288988679647</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.003116768784821033</v>
+        <v>0.003087874734774232</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0003245800035074353</v>
+        <v>0.003594906069338322</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.001206051907502115</v>
+        <v>0.0007957446505315602</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.002286460949108005</v>
+        <v>0.001993866171687841</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.007465525530278683</v>
+        <v>0.007744370494037867</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.008440372534096241</v>
+        <v>0.008684631437063217</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.02495026215910912</v>
+        <v>-0.02659998647868633</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.0186198465526104</v>
+        <v>-0.01958556286990643</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.02813171967864037</v>
+        <v>-0.02928768470883369</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.00253276783041656</v>
+        <v>-0.004089158494025469</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.01132602337747812</v>
+        <v>0.009962749667465687</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.001355541404336691</v>
+        <v>-0.001941054477356374</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.02571661025285721</v>
+        <v>-0.01215394213795662</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.007624490652233362</v>
+        <v>-0.001586010679602623</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.07580067217350006</v>
+        <v>-0.07611855864524841</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.06082670763134956</v>
+        <v>0.05726588889956474</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.0005178653518669307</v>
+        <v>-0.001289072446525097</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0081065334379673</v>
+        <v>0.01605932973325253</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.02028808183968067</v>
+        <v>-0.01926840282976627</v>
       </c>
       <c r="GH2" t="n">
-        <v>-6.881164154037833e-05</v>
+        <v>0.0002096856478601694</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.1509506106376648</v>
+        <v>-0.1519007086753845</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.001304309815168381</v>
+        <v>0.004198909271508455</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.02284226752817631</v>
+        <v>0.02384272217750549</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02070398069918156</v>
+        <v>0.02168466150760651</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.09331841021776199</v>
+        <v>-0.1024883985519409</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.02877790294587612</v>
+        <v>-0.02411683462560177</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.02116715535521507</v>
+        <v>-0.02999561466276646</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.01234093494713306</v>
+        <v>0.01236605271697044</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.002420934848487377</v>
+        <v>0.008090334944427013</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.01105842273682356</v>
+        <v>-0.006672116462141275</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.03163756430149078</v>
+        <v>-0.04080864414572716</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.001997339073568583</v>
+        <v>-0.001398104126565158</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.00565766915678978</v>
+        <v>-0.003170114476233721</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.007162470836192369</v>
+        <v>-0.005675645545125008</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.03559132665395737</v>
+        <v>-0.03675393760204315</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.004005200229585171</v>
+        <v>0.002493450650945306</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.003465024987235665</v>
+        <v>0.002887113718315959</v>
       </c>
     </row>
   </sheetData>
